--- a/ESL/ESL.xlsx
+++ b/ESL/ESL.xlsx
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -590,7 +590,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.166666666666667</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.733333333333333</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
         <v>25</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.65</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
         <v>25</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
         <v>25</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.833333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" t="n">
         <v>25</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.833333333333333</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/ESL/ESL.xlsx
+++ b/ESL/ESL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fifteen Week B6 M,W Session (1/31/2022 - 5/18/2022)</t>
+          <t>Fifteen Week B6 M,W Session (1/30/2023 - 5/17/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -573,7 +588,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -590,13 +605,13 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -623,12 +638,21 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,32 +661,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ESL 4</t>
+          <t>ESL 7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Nine Week B2 Tuesday Session (3/21/2023 - 5/16/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27777</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>31816</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11:00am</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -676,18 +712,18 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Rouhi, S</t>
+          <t>Cox, W</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -696,7 +732,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -705,16 +741,25 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid Course</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -723,17 +768,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ESL 5</t>
+          <t>ESL 14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29623</t>
+          <t>32348</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -745,10 +790,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -762,18 +807,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Sugihara-Cheetham, J</t>
+          <t>Berry, P</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -782,7 +827,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,12 +840,21 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -809,44 +863,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ESL 5</t>
+          <t>ESL 20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fifteen Week B7 T,Th Session (2/1/2022 - 5/19/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23605</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8:30am</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10:55am</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>30651</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -860,18 +902,18 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Sugihara-Cheetham, J</t>
+          <t>Rouhi, S</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -880,7 +922,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -889,16 +931,25 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -907,44 +958,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ESL 7</t>
+          <t>ESL 21B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nine Week B M-F Session (3/21/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31816</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>12:30pm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>33240</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -958,7 +997,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>35</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -969,7 +1008,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Rouhi, S</t>
+          <t>Berry, P</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -978,7 +1017,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -987,16 +1026,25 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.6000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1005,17 +1053,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ESL 14</t>
+          <t>ESL 35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32348</t>
+          <t>32870</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1027,10 +1075,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1039,23 +1087,23 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Berry, P</t>
+          <t>Rouhi, S</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1064,7 +1112,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1077,12 +1125,21 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>0.15</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1091,17 +1148,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESL 20</t>
+          <t>ESL 104</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30651</t>
+          <t>27777</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1113,7 +1170,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
         <v>25</v>
@@ -1130,18 +1187,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Fischer, A</t>
+          <t>Rouhi, S</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1150,7 +1207,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1163,12 +1220,21 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1177,17 +1243,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ESL 21A</t>
+          <t>ESL 105</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31817</t>
+          <t>29623</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1199,10 +1265,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1216,18 +1282,18 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Berry, P</t>
+          <t>Sugihara-Cheetham, J</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1236,7 +1302,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1249,12 +1315,21 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0.9</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1263,17 +1338,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ESL 120</t>
+          <t>ESL 105</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B1 Monday Session (1/30/2023 - 5/15/2023)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23697</t>
+          <t>23605</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1283,24 +1358,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10:50am</t>
+          <t>11:30am</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tu Th</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1314,18 +1389,18 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>McIlroy, L</t>
+          <t>Sugihara-Cheetham, J</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1343,16 +1418,25 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Hybrid Course</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1366,7 +1450,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1383,7 +1467,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>25</v>
@@ -1400,18 +1484,18 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Cox, W</t>
+          <t>McIlroy, L</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1433,12 +1517,21 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1447,41 +1540,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ESL 152</t>
+          <t>ESL 120</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B2 Tuesday Session (1/31/2023 - 5/16/2023)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29822</t>
+          <t>23697</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9:30am</t>
+          <t>8:30am</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:50am</t>
+          <t>11:00am</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M W</t>
+          <t>Tu</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LA110</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
         <v>25</v>
@@ -1498,18 +1591,18 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>McIlroy, L</t>
+          <t>Cox, W</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1531,12 +1624,21 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0.8333333333333333</v>
+        <v>1.166666666666667</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1550,24 +1652,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27913</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>29822</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12:00pm</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
         <v>25</v>
@@ -1584,13 +1698,13 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1613,11 +1727,115 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
+          <t>Hybrid Course</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ESL 152</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27913</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>25</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>McIlroy, L</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>90</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>Online Course</t>
         </is>
       </c>
-      <c r="V13" t="n">
-        <v>3.5</v>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ESL/ESL.xlsx
+++ b/ESL/ESL.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -647,12 +647,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>25</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="W3" t="n">
         <v>1.25</v>
@@ -754,12 +754,12 @@
         <v>0.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
         <v>25</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
         <v>2.5</v>
@@ -849,12 +849,12 @@
         <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>25</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
         <v>2.5</v>
@@ -944,12 +944,12 @@
         <v>0.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>25</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="W8" t="n">
         <v>4.166666666666666</v>
@@ -1229,12 +1229,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>25</v>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="W11" t="n">
         <v>4.166666666666666</v>
@@ -1526,12 +1526,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>25</v>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="W14" t="n">
         <v>4.166666666666666</v>
@@ -1835,7 +1835,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
